--- a/assets/public/Chapter_6_Building_A_Model/documents/resources/Question_6.04.xlsm 2018-09-19/Final/6.4_Step2_Final.xlsx
+++ b/assets/public/Chapter_6_Building_A_Model/documents/resources/Question_6.04.xlsm 2018-09-19/Final/6.4_Step2_Final.xlsx
@@ -5,7 +5,7 @@
   <workbookPr autoCompressPictures="0" defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Content-Cosmatt\Dropbox\HBP - Spreadsheet Modeling\Chapter_6_Building_A_Model\documents\resources\Question_6.9.xlsm 2018-08-14 16-29-55\Final\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Prashant.COMPRO\Dropbox\HBP - Spreadsheet Modeling\Chapter_6_Building_A_Model\documents\resources\Question_6.04.xlsm 2018-09-19\Final\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -14,7 +14,7 @@
   <sheets>
     <sheet name="6.9_Step1_Initial" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="179021" concurrentCalc="0"/>
+  <calcPr calcId="162913" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -43,9 +43,6 @@
     <t>per unit of annual capacity</t>
   </si>
   <si>
-    <t>Annual Capacity</t>
-  </si>
-  <si>
     <t>Year 1 selling price</t>
   </si>
   <si>
@@ -80,18 +77,22 @@
   </si>
   <si>
     <t>Total Cost of Construction</t>
+  </si>
+  <si>
+    <t>Annual capacity</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="5">
+  <numFmts count="6">
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="165" formatCode="0.0%"/>
     <numFmt numFmtId="166" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="167" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="168" formatCode="m/d/yyyy;@"/>
   </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
@@ -192,10 +193,9 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -214,12 +214,27 @@
     <xf numFmtId="44" fontId="1" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="167" fontId="2" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="44" fontId="2" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="166" fontId="2" fillId="4" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="167" fontId="2" fillId="5" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="2" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="44" fontId="2" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="167" fontId="2" fillId="5" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Comma" xfId="2" builtinId="3"/>
@@ -289,7 +304,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -324,7 +339,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -513,18 +528,18 @@
   <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="31" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" style="15" customWidth="1"/>
     <col min="3" max="3" width="24.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="11">
@@ -533,7 +548,7 @@
       <c r="C1" s="1"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="12">
@@ -544,112 +559,112 @@
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" s="10">
+        <v>300000</v>
+      </c>
+      <c r="C3" s="2"/>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="13">
-        <v>300000</v>
-      </c>
-      <c r="C3" s="3"/>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="5" t="s">
+      <c r="B4" s="5"/>
+      <c r="C4" s="1"/>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="6"/>
-      <c r="C4" s="1"/>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="5" t="s">
+      <c r="B5" s="6"/>
+      <c r="C5" s="1"/>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="7"/>
-      <c r="C5" s="1"/>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="5" t="s">
+      <c r="B6" s="6"/>
+      <c r="C6" s="1"/>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="7"/>
-      <c r="C6" s="1"/>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="5" t="s">
+      <c r="B7" s="6"/>
+      <c r="C7" s="1"/>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="7"/>
-      <c r="C7" s="1"/>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="5" t="s">
+      <c r="B8" s="7"/>
+      <c r="C8" s="1"/>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="8"/>
-      <c r="C8" s="1"/>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="5" t="s">
+      <c r="B9" s="7"/>
+      <c r="C9" s="1"/>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="8"/>
-      <c r="C9" s="1"/>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="5" t="s">
+      <c r="B10" s="8"/>
+      <c r="C10" s="1"/>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B10" s="9"/>
-      <c r="C10" s="1"/>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="5" t="s">
+      <c r="B11" s="7"/>
+      <c r="C11" s="1"/>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="8"/>
-      <c r="C11" s="1"/>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="5" t="s">
+      <c r="B12" s="9"/>
+      <c r="C12" s="1"/>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B12" s="10"/>
-      <c r="C12" s="1"/>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="5" t="s">
+      <c r="B13" s="7"/>
+      <c r="C13" s="1"/>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B13" s="8"/>
-      <c r="C13" s="1"/>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="B14" s="8"/>
+      <c r="B14" s="7"/>
       <c r="C14" s="1"/>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
-      <c r="B15" s="1"/>
+      <c r="B15" s="13"/>
       <c r="C15" s="1"/>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="1"/>
-      <c r="B16" s="2">
+      <c r="B16" s="16">
         <v>40909</v>
       </c>
       <c r="C16" s="1"/>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="4" t="s">
-        <v>15</v>
+      <c r="A17" s="3" t="s">
+        <v>14</v>
       </c>
       <c r="B17" s="14">
         <f>B1+B2*B3</f>
         <v>1300000</v>
       </c>
-      <c r="C17" s="3"/>
+      <c r="C17" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/assets/public/Chapter_6_Building_A_Model/documents/resources/Question_6.04.xlsm 2018-09-19/Final/6.4_Step2_Final.xlsx
+++ b/assets/public/Chapter_6_Building_A_Model/documents/resources/Question_6.04.xlsm 2018-09-19/Final/6.4_Step2_Final.xlsx
@@ -14,7 +14,7 @@
   <sheets>
     <sheet name="6.9_Step1_Initial" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913" concurrentCalc="0"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -32,15 +32,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>Plant fixed cost</t>
   </si>
   <si>
     <t>Cost per unit of capacity</t>
-  </si>
-  <si>
-    <t>per unit of annual capacity</t>
   </si>
   <si>
     <t>Year 1 selling price</t>
@@ -193,10 +190,9 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="44" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -217,12 +213,6 @@
     <xf numFmtId="166" fontId="2" fillId="4" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="167" fontId="2" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="44" fontId="2" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -233,6 +223,12 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="168" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="167" fontId="2" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="44" fontId="2" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
@@ -245,6 +241,7 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFDDD9C4"/>
       <color rgb="FFB7E4FA"/>
       <color rgb="FF199ED5"/>
       <color rgb="FFE2F4FD"/>
@@ -525,146 +522,127 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:C17"/>
+  <dimension ref="A1:B17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="31" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" style="15" customWidth="1"/>
+    <col min="2" max="2" width="13.7109375" style="12" customWidth="1"/>
     <col min="3" max="3" width="24.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="11">
+      <c r="B1" s="14">
         <v>400000</v>
       </c>
-      <c r="C1" s="1"/>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="12">
+      <c r="B2" s="15">
         <v>3</v>
       </c>
-      <c r="C2" s="1" t="s">
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" s="9">
+        <v>300000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B3" s="10">
-        <v>300000</v>
-      </c>
-      <c r="C3" s="2"/>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
+      <c r="B4" s="4"/>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="5"/>
-      <c r="C4" s="1"/>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
+      <c r="B5" s="5"/>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="6"/>
-      <c r="C5" s="1"/>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
+      <c r="B6" s="5"/>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="6"/>
-      <c r="C6" s="1"/>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="4" t="s">
+      <c r="B7" s="5"/>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="6"/>
-      <c r="C7" s="1"/>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="4" t="s">
+      <c r="B8" s="6"/>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="7"/>
-      <c r="C8" s="1"/>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="4" t="s">
+      <c r="B9" s="6"/>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="7"/>
-      <c r="C9" s="1"/>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="4" t="s">
+      <c r="B10" s="7"/>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="8"/>
-      <c r="C10" s="1"/>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="4" t="s">
+      <c r="B11" s="6"/>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="7"/>
-      <c r="C11" s="1"/>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="4" t="s">
+      <c r="B12" s="8"/>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="9"/>
-      <c r="C12" s="1"/>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="4" t="s">
+      <c r="B13" s="6"/>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="7"/>
-      <c r="C13" s="1"/>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="4" t="s">
+      <c r="B14" s="6"/>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" s="1"/>
+      <c r="B15" s="10"/>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" s="1"/>
+      <c r="B16" s="13">
+        <v>40909</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B14" s="7"/>
-      <c r="C14" s="1"/>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="1"/>
-      <c r="B15" s="13"/>
-      <c r="C15" s="1"/>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="1"/>
-      <c r="B16" s="16">
-        <v>40909</v>
-      </c>
-      <c r="C16" s="1"/>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B17" s="14">
+      <c r="B17" s="11">
         <f>B1+B2*B3</f>
         <v>1300000</v>
       </c>
-      <c r="C17" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/assets/public/Chapter_6_Building_A_Model/documents/resources/Question_6.04.xlsm 2018-09-19/Final/6.4_Step2_Final.xlsx
+++ b/assets/public/Chapter_6_Building_A_Model/documents/resources/Question_6.04.xlsm 2018-09-19/Final/6.4_Step2_Final.xlsx
@@ -5,11 +5,11 @@
   <workbookPr autoCompressPictures="0" defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Prashant.COMPRO\Dropbox\HBP - Spreadsheet Modeling\Chapter_6_Building_A_Model\documents\resources\Question_6.04.xlsm 2018-09-19\Final\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Prashant.COMPRO\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9000"/>
   </bookViews>
   <sheets>
     <sheet name="6.9_Step1_Initial" sheetId="1" r:id="rId1"/>
@@ -190,7 +190,7 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -217,9 +217,6 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="167" fontId="2" fillId="5" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="168" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -524,22 +521,19 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:B17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="31" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.7109375" style="12" customWidth="1"/>
-    <col min="3" max="3" width="24.7109375" customWidth="1"/>
+    <col min="2" max="2" width="13.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="14">
+      <c r="B1" s="13">
         <v>400000</v>
       </c>
     </row>
@@ -547,7 +541,7 @@
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="15">
+      <c r="B2" s="14">
         <v>3</v>
       </c>
     </row>
@@ -631,7 +625,7 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="1"/>
-      <c r="B16" s="13">
+      <c r="B16" s="12">
         <v>40909</v>
       </c>
     </row>

--- a/assets/public/Chapter_6_Building_A_Model/documents/resources/Question_6.04.xlsm 2018-09-19/Final/6.4_Step2_Final.xlsx
+++ b/assets/public/Chapter_6_Building_A_Model/documents/resources/Question_6.04.xlsm 2018-09-19/Final/6.4_Step2_Final.xlsx
@@ -5,7 +5,7 @@
   <workbookPr autoCompressPictures="0" defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Prashant.COMPRO\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Prashant.COMPRO\Dropbox\HBP - Spreadsheet Modeling\Chapter_6_Building_A_Model\documents\resources\Question_6.04.xlsm 2018-09-19\Final\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -640,6 +640,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
